--- a/static_with_torso.xlsx
+++ b/static_with_torso.xlsx
@@ -322,8 +322,8 @@
   </sheetPr>
   <dimension ref="A1:AQ401"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A298" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K315" activeCellId="0" sqref="K315"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.35"/>
